--- a/CB-202109.xlsx
+++ b/CB-202109.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBC686B-397B-4D6E-A281-57E867E8FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB524DCC-A7DA-436C-BCED-955950DB28CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4515" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="CB低价-每周一支定投" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,11 @@
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="s" sheetId="1" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">收益weekly!$A$2:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">收益weekly!$B$2:$B$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">收益weekly!$C$2:$C$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>收入</t>
   </si>
@@ -186,10 +191,6 @@
   </si>
   <si>
     <t>mom</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>起步</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -329,9 +330,6 @@
   </si>
   <si>
     <t>雪榕转债</t>
-  </si>
-  <si>
-    <t>雪榕转债</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -345,6 +343,9 @@
   <si>
     <t>价格都高了，低于100的只有5支，越来越不好选择了</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>起步转债</t>
   </si>
 </sst>
 </file>
@@ -483,7 +484,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1047,6 +1054,44 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,43 +1163,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1236,7 +1246,1124 @@
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>收益表</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>收益weekly!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>收益weekly!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>475.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>379.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>738.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1475.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2086.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1592.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C4A-498C-8866-6AE2062ED286}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>收益weekly!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>收益weekly!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.8400000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2299999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7599999999999993E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C4A-498C-8866-6AE2062ED286}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="631566943"/>
+        <c:axId val="631566527"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="631566943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631566527"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="7"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="631566527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="631566943"/>
+        <c:crossesAt val="44400"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0BFA67-F3AF-4DD6-931A-E65AFE5D2227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -2141,8 +3268,8 @@
   <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R34" sqref="R34"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2168,47 +3295,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="85"/>
-      <c r="B1" s="91" t="s">
+      <c r="A1" s="97"/>
+      <c r="B1" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="89" t="s">
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="87" t="s">
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="S1" s="95" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
@@ -2242,11 +3369,11 @@
       <c r="P2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="88"/>
+      <c r="Q2" s="100"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="96"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
@@ -2295,8 +3422,8 @@
         <v>26.710000000000065</v>
       </c>
       <c r="P3" s="48">
-        <f>M3/$M$55</f>
-        <v>4.31060153001512E-2</v>
+        <f t="shared" ref="P3:P27" si="0">M3/$M$55</f>
+        <v>4.2333373791251808E-2</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="S3" s="44"/>
@@ -2319,12 +3446,12 @@
         <v>98.03</v>
       </c>
       <c r="H4" s="26">
-        <f t="shared" ref="H4:H42" si="0">F4*G4</f>
+        <f t="shared" ref="H4:H27" si="1">F4*G4</f>
         <v>980.3</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="23">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="K4" s="23">
         <v>98.05</v>
@@ -2333,20 +3460,20 @@
         <v>10</v>
       </c>
       <c r="M4" s="22">
-        <f t="shared" ref="M4:M28" si="1">J4*L4</f>
-        <v>1006</v>
+        <f t="shared" ref="M4:M27" si="2">J4*L4</f>
+        <v>1005</v>
       </c>
       <c r="N4" s="48">
-        <f t="shared" ref="N4:N54" si="2">(J4-K4)/K4</f>
-        <v>2.6007139214686358E-2</v>
+        <f t="shared" ref="N4:N54" si="3">(J4-K4)/K4</f>
+        <v>2.4987251402345773E-2</v>
       </c>
       <c r="O4" s="22">
-        <f t="shared" ref="O4:O49" si="3">(J4-K4)*L4</f>
-        <v>25.499999999999972</v>
+        <f t="shared" ref="O4:O49" si="4">(J4-K4)*L4</f>
+        <v>24.500000000000028</v>
       </c>
       <c r="P4" s="48">
-        <f>M4/$M$55</f>
-        <v>4.1721652708299278E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0933095364744432E-2</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="S4" s="49"/>
@@ -2372,7 +3499,7 @@
         <v>100.92</v>
       </c>
       <c r="H5" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1009.2</v>
       </c>
       <c r="I5" s="27"/>
@@ -2386,20 +3513,20 @@
         <v>10</v>
       </c>
       <c r="M5" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1059.5</v>
       </c>
       <c r="N5" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9633445611254261E-2</v>
       </c>
       <c r="O5" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50.100000000000051</v>
       </c>
       <c r="P5" s="48">
-        <f>M5/$M$55</f>
-        <v>4.394044835431718E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3152850287509176E-2</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="S5" s="49"/>
@@ -2422,7 +3549,7 @@
         <v>95.751000000000005</v>
       </c>
       <c r="H6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>957.51</v>
       </c>
       <c r="I6" s="27"/>
@@ -2436,20 +3563,20 @@
         <v>10</v>
       </c>
       <c r="M6" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000.3499999999999</v>
       </c>
       <c r="N6" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.4522872268223115E-2</v>
       </c>
       <c r="O6" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.639999999999958</v>
       </c>
       <c r="P6" s="48">
-        <f>M6/$M$55</f>
-        <v>4.1487331298953462E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0743703430967247E-2</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="S6" s="49"/>
@@ -2470,12 +3597,12 @@
         <v>0</v>
       </c>
       <c r="H7" s="26">
-        <f t="shared" ref="H7:H15" si="4">F7*G7</f>
+        <f t="shared" ref="H7:H15" si="5">F7*G7</f>
         <v>0</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
-        <v>98.287999999999997</v>
+        <v>98.6</v>
       </c>
       <c r="K7" s="23">
         <v>96.34</v>
@@ -2484,20 +3611,20 @@
         <v>20</v>
       </c>
       <c r="M7" s="22">
-        <f t="shared" ref="M7:M15" si="5">J7*L7</f>
-        <v>1965.76</v>
+        <f t="shared" ref="M7:M15" si="6">J7*L7</f>
+        <v>1972</v>
       </c>
       <c r="N7" s="48">
-        <f t="shared" ref="N7:N15" si="6">(J7-K7)/K7</f>
-        <v>2.0220053975503353E-2</v>
+        <f t="shared" ref="N7:N15" si="7">(J7-K7)/K7</f>
+        <v>2.3458584181025439E-2</v>
       </c>
       <c r="O7" s="22">
-        <f t="shared" ref="O7:O15" si="7">(J7-K7)*L7</f>
-        <v>38.959999999999866</v>
+        <f t="shared" ref="O7:O15" si="8">(J7-K7)*L7</f>
+        <v>45.199999999999818</v>
       </c>
       <c r="P7" s="48">
-        <f>M7/$M$55</f>
-        <v>8.1525602413386078E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.0318471700772151E-2</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="S7" s="49"/>
@@ -2521,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8" s="27"/>
@@ -2535,20 +3662,20 @@
         <v>10</v>
       </c>
       <c r="M8" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1135.5</v>
       </c>
       <c r="N8" s="48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.13549999999999998</v>
       </c>
       <c r="O8" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>135.49999999999997</v>
       </c>
       <c r="P8" s="48">
-        <f>M8/$M$55</f>
-        <v>4.7092382356137011E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.6248288344942587E-2</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="S8" s="49"/>
@@ -2569,12 +3696,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="23">
-        <v>107.119</v>
+        <v>107.541</v>
       </c>
       <c r="K9" s="23">
         <v>102.126</v>
@@ -2583,20 +3710,20 @@
         <v>10</v>
       </c>
       <c r="M9" s="22">
-        <f t="shared" si="5"/>
-        <v>1071.19</v>
+        <f t="shared" si="6"/>
+        <v>1075.4099999999999</v>
       </c>
       <c r="N9" s="48">
-        <f t="shared" si="6"/>
-        <v>4.8890586138691371E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.3022736619469983E-2</v>
       </c>
       <c r="O9" s="22">
-        <f t="shared" si="7"/>
-        <v>49.92999999999995</v>
+        <f t="shared" si="8"/>
+        <v>54.14999999999992</v>
       </c>
       <c r="P9" s="48">
-        <f>M9/$M$55</f>
-        <v>4.4425265571176049E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3800855807163981E-2</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="S9" s="49"/>
@@ -2608,7 +3735,7 @@
         <v>113569</v>
       </c>
       <c r="E10" s="61" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="27">
         <v>10</v>
@@ -2622,7 +3749,7 @@
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="23">
-        <v>99.92</v>
+        <v>100.11</v>
       </c>
       <c r="K10" s="23">
         <v>99.6</v>
@@ -2632,19 +3759,19 @@
       </c>
       <c r="M10" s="22">
         <f>J10*L10</f>
-        <v>999.2</v>
+        <v>1001.1</v>
       </c>
       <c r="N10" s="48">
         <f>(J10-K10)/K10</f>
-        <v>3.2128514056225643E-3</v>
+        <v>5.1204819277108947E-3</v>
       </c>
       <c r="O10" s="22">
         <f>(J10-K10)*L10</f>
-        <v>3.2000000000000739</v>
+        <v>5.1000000000000512</v>
       </c>
       <c r="P10" s="48">
-        <f>M10/$M$55</f>
-        <v>4.1439637560768031E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.0774250517060351E-2</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="S10" s="49"/>
@@ -2656,7 +3783,7 @@
         <v>110064</v>
       </c>
       <c r="E11" s="61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="27">
         <v>10</v>
@@ -2665,7 +3792,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
       <c r="J11" s="23">
-        <v>104.91</v>
+        <v>105.13</v>
       </c>
       <c r="K11" s="23">
         <v>97.01</v>
@@ -2675,19 +3802,19 @@
       </c>
       <c r="M11" s="22">
         <f>J11*L11</f>
-        <v>1049.0999999999999</v>
+        <v>1051.3</v>
       </c>
       <c r="N11" s="48">
         <f>(J11-K11)/K11</f>
-        <v>8.1434903618183604E-2</v>
+        <v>8.3702711060715293E-2</v>
       </c>
       <c r="O11" s="22">
         <f>(J11-K11)*L11</f>
-        <v>78.999999999999915</v>
+        <v>81.199999999999903</v>
       </c>
       <c r="P11" s="48">
-        <f>M11/$M$55</f>
-        <v>4.3509131069857626E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2818868812891361E-2</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="S11" s="49"/>
@@ -2708,12 +3835,12 @@
         <v>0</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="23">
-        <v>110.5</v>
+        <v>109.67</v>
       </c>
       <c r="K12" s="23">
         <v>98.131</v>
@@ -2722,20 +3849,20 @@
         <v>10</v>
       </c>
       <c r="M12" s="22">
-        <f t="shared" si="5"/>
-        <v>1105</v>
+        <f t="shared" si="6"/>
+        <v>1096.7</v>
       </c>
       <c r="N12" s="48">
-        <f t="shared" si="6"/>
-        <v>0.12604579592585421</v>
+        <f t="shared" si="7"/>
+        <v>0.11758771438179577</v>
       </c>
       <c r="O12" s="22">
-        <f t="shared" si="7"/>
-        <v>123.69</v>
+        <f t="shared" si="8"/>
+        <v>115.39000000000001</v>
       </c>
       <c r="P12" s="48">
-        <f>M12/$M$55</f>
-        <v>4.5827461473827734E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.4667985757726583E-2</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="S12" s="49"/>
@@ -2747,7 +3874,7 @@
         <v>113574</v>
       </c>
       <c r="E13" s="61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="27">
         <v>10</v>
@@ -2756,7 +3883,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
       <c r="J13" s="23">
-        <v>112.98</v>
+        <v>108.51</v>
       </c>
       <c r="K13" s="23">
         <v>98.19</v>
@@ -2765,20 +3892,20 @@
         <v>10</v>
       </c>
       <c r="M13" s="22">
-        <f t="shared" si="5"/>
-        <v>1129.8</v>
+        <f t="shared" si="6"/>
+        <v>1085.1000000000001</v>
       </c>
       <c r="N13" s="48">
-        <f t="shared" si="6"/>
-        <v>0.15062633669416445</v>
+        <f t="shared" si="7"/>
+        <v>0.10510235258172938</v>
       </c>
       <c r="O13" s="22">
-        <f t="shared" si="7"/>
-        <v>147.90000000000006</v>
+        <f t="shared" si="8"/>
+        <v>103.20000000000007</v>
       </c>
       <c r="P13" s="48">
-        <f>M13/$M$55</f>
-        <v>4.6855987306000518E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.419552415948675E-2</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="S13" s="49"/>
@@ -2790,7 +3917,7 @@
         <v>113519</v>
       </c>
       <c r="E14" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="27">
         <v>10</v>
@@ -2799,12 +3926,12 @@
         <v>0</v>
       </c>
       <c r="H14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="23">
-        <v>108.12</v>
+        <v>105.14</v>
       </c>
       <c r="K14" s="23">
         <v>98.71</v>
@@ -2813,20 +3940,20 @@
         <v>10</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="5"/>
-        <v>1081.2</v>
+        <f t="shared" si="6"/>
+        <v>1051.4000000000001</v>
       </c>
       <c r="N14" s="48">
-        <f t="shared" si="6"/>
-        <v>9.5329753824334021E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.5140309998987012E-2</v>
       </c>
       <c r="O14" s="22">
-        <f t="shared" si="7"/>
-        <v>94.100000000000108</v>
+        <f t="shared" si="8"/>
+        <v>64.300000000000068</v>
       </c>
       <c r="P14" s="48">
-        <f>M14/$M$55</f>
-        <v>4.4840408457468374E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2822941757703778E-2</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="S14" s="49"/>
@@ -2838,7 +3965,7 @@
         <v>113563</v>
       </c>
       <c r="E15" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" s="27">
         <v>10</v>
@@ -2847,12 +3974,12 @@
         <v>0</v>
       </c>
       <c r="H15" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="23">
-        <v>107.85</v>
+        <v>105.24</v>
       </c>
       <c r="K15" s="23">
         <v>109.215</v>
@@ -2861,20 +3988,20 @@
         <v>20</v>
       </c>
       <c r="M15" s="22">
-        <f t="shared" si="5"/>
-        <v>2157</v>
+        <f t="shared" si="6"/>
+        <v>2104.7999999999997</v>
       </c>
       <c r="N15" s="48">
-        <f t="shared" si="6"/>
-        <v>-1.2498283202856833E-2</v>
+        <f t="shared" si="7"/>
+        <v>-3.6396099436890615E-2</v>
       </c>
       <c r="O15" s="22">
-        <f t="shared" si="7"/>
-        <v>-27.300000000000182</v>
+        <f t="shared" si="8"/>
+        <v>-79.500000000000171</v>
       </c>
       <c r="P15" s="48">
-        <f>M15/$M$55</f>
-        <v>8.9456863709544282E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5727342411655791E-2</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="S15" s="49"/>
@@ -2890,7 +4017,7 @@
         <v>128100</v>
       </c>
       <c r="E16" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="27">
         <v>10</v>
@@ -2899,12 +4026,12 @@
         <v>0</v>
       </c>
       <c r="H16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="23">
-        <v>116.7</v>
+        <v>105.89</v>
       </c>
       <c r="K16" s="23">
         <v>78.131</v>
@@ -2913,20 +4040,20 @@
         <v>10</v>
       </c>
       <c r="M16" s="22">
-        <f t="shared" si="1"/>
-        <v>1167</v>
+        <f t="shared" si="2"/>
+        <v>1058.9000000000001</v>
       </c>
       <c r="N16" s="48">
-        <f t="shared" si="2"/>
-        <v>0.49364528804187841</v>
+        <f t="shared" si="3"/>
+        <v>0.3552879138882134</v>
       </c>
       <c r="O16" s="22">
-        <f t="shared" si="3"/>
-        <v>385.69000000000005</v>
+        <f t="shared" si="4"/>
+        <v>277.59000000000003</v>
       </c>
       <c r="P16" s="48">
-        <f>M16/$M$55</f>
-        <v>4.8398776054259698E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3128412618634704E-2</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="S16" s="49"/>
@@ -2942,7 +4069,7 @@
         <v>113589</v>
       </c>
       <c r="E17" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="27">
         <v>10</v>
@@ -2951,12 +4078,12 @@
         <v>0</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="23">
-        <v>99.15</v>
+        <v>95.88</v>
       </c>
       <c r="K17" s="23">
         <v>94.27</v>
@@ -2965,20 +4092,20 @@
         <v>10</v>
       </c>
       <c r="M17" s="22">
-        <f t="shared" si="1"/>
-        <v>991.5</v>
+        <f t="shared" si="2"/>
+        <v>958.8</v>
       </c>
       <c r="N17" s="48">
-        <f t="shared" si="2"/>
-        <v>5.1766203458152221E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7078604009759198E-2</v>
       </c>
       <c r="O17" s="22">
-        <f t="shared" si="3"/>
-        <v>48.800000000000097</v>
+        <f t="shared" si="4"/>
+        <v>16.099999999999994</v>
       </c>
       <c r="P17" s="48">
-        <f>M17/$M$55</f>
-        <v>4.1120296879004703E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.9051394861409905E-2</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="S17" s="49"/>
@@ -2991,10 +4118,10 @@
         <v>44403</v>
       </c>
       <c r="D18" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="61" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>61</v>
       </c>
       <c r="F18" s="27">
         <v>10</v>
@@ -3003,12 +4130,12 @@
         <v>0</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="23">
-        <v>104.99</v>
+        <v>98.198999999999998</v>
       </c>
       <c r="K18" s="23">
         <v>97.88</v>
@@ -3017,20 +4144,20 @@
         <v>10</v>
       </c>
       <c r="M18" s="22">
-        <f t="shared" si="1"/>
-        <v>1049.8999999999999</v>
+        <f t="shared" si="2"/>
+        <v>981.99</v>
       </c>
       <c r="N18" s="48">
-        <f t="shared" si="2"/>
-        <v>7.2639967306906417E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.2590927666530712E-3</v>
       </c>
       <c r="O18" s="22">
-        <f t="shared" si="3"/>
-        <v>71.099999999999994</v>
+        <f t="shared" si="4"/>
+        <v>3.1900000000000261</v>
       </c>
       <c r="P18" s="48">
-        <f>M18/$M$55</f>
-        <v>4.3542309322508355E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.9995910763408339E-2</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="S18" s="49"/>
@@ -3046,7 +4173,7 @@
         <v>113595</v>
       </c>
       <c r="E19" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="27">
         <v>10</v>
@@ -3055,12 +4182,12 @@
         <v>0</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="23">
-        <v>96.91</v>
+        <v>89.59</v>
       </c>
       <c r="K19" s="23">
         <v>86.13</v>
@@ -3069,20 +4196,20 @@
         <v>10</v>
       </c>
       <c r="M19" s="22">
-        <f t="shared" si="1"/>
-        <v>969.09999999999991</v>
+        <f t="shared" si="2"/>
+        <v>895.90000000000009</v>
       </c>
       <c r="N19" s="48">
-        <f t="shared" si="2"/>
-        <v>0.12515964240102173</v>
+        <f t="shared" si="3"/>
+        <v>4.0171833275281649E-2</v>
       </c>
       <c r="O19" s="22">
         <f>(J19-K19)*L19</f>
-        <v>107.80000000000001</v>
+        <v>34.60000000000008</v>
       </c>
       <c r="P19" s="48">
-        <f>M19/$M$55</f>
-        <v>4.0191305804784125E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.6489512574402527E-2</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="S19" s="49"/>
@@ -3098,7 +4225,7 @@
         <v>113596</v>
       </c>
       <c r="E20" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="27">
         <v>10</v>
@@ -3107,7 +4234,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
       <c r="J20" s="23">
-        <v>98.84</v>
+        <v>94.09</v>
       </c>
       <c r="K20" s="23">
         <v>92.44</v>
@@ -3116,20 +4243,20 @@
         <v>10</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="1"/>
-        <v>988.40000000000009</v>
+        <f t="shared" si="2"/>
+        <v>940.90000000000009</v>
       </c>
       <c r="N20" s="48">
-        <f t="shared" si="2"/>
-        <v>6.9234097793163196E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7849415837299931E-2</v>
       </c>
       <c r="O20" s="22">
         <f>(J20-K20)*L20</f>
-        <v>64.000000000000057</v>
+        <v>16.500000000000057</v>
       </c>
       <c r="P20" s="48">
-        <f>M20/$M$55</f>
-        <v>4.0991731149983113E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.8322337739988097E-2</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="S20" s="49"/>
@@ -3146,7 +4273,7 @@
         <v>110081</v>
       </c>
       <c r="E21" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="74">
         <v>10</v>
@@ -3156,25 +4283,25 @@
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
       <c r="L21" s="74"/>
       <c r="M21" s="76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="77" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P21" s="77">
-        <f>M21/$M$55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q21" s="78"/>
@@ -3189,10 +4316,10 @@
         <v>44434</v>
       </c>
       <c r="D22" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="61" t="s">
         <v>69</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>70</v>
       </c>
       <c r="F22" s="27">
         <v>10</v>
@@ -3201,12 +4328,12 @@
         <v>102.7</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1027</v>
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="23">
-        <v>106.09</v>
+        <v>104.5</v>
       </c>
       <c r="K22" s="23">
         <v>102.74</v>
@@ -3215,20 +4342,20 @@
         <v>10</v>
       </c>
       <c r="M22" s="22">
-        <f t="shared" si="1"/>
-        <v>1060.9000000000001</v>
+        <f t="shared" si="2"/>
+        <v>1045</v>
       </c>
       <c r="N22" s="48">
-        <f t="shared" si="2"/>
-        <v>3.2606579715787509E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.7130620985010756E-2</v>
       </c>
       <c r="O22" s="22">
-        <f t="shared" si="3"/>
-        <v>33.500000000000085</v>
+        <f t="shared" si="4"/>
+        <v>17.600000000000051</v>
       </c>
       <c r="P22" s="48">
-        <f>M22/$M$55</f>
-        <v>4.3998510296455969E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2562273289709379E-2</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="S22" s="49"/>
@@ -3245,7 +4372,7 @@
         <v>123056</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F23" s="27">
         <v>10</v>
@@ -3254,14 +4381,14 @@
         <v>104.477</v>
       </c>
       <c r="H23" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1044.77</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J23" s="23">
-        <v>106.65</v>
+        <v>103.953</v>
       </c>
       <c r="K23" s="23">
         <v>104.50700000000001</v>
@@ -3270,66 +4397,66 @@
         <v>10</v>
       </c>
       <c r="M23" s="22">
-        <f t="shared" si="1"/>
-        <v>1066.5</v>
+        <f t="shared" si="2"/>
+        <v>1039.53</v>
       </c>
       <c r="N23" s="48">
-        <f t="shared" si="2"/>
-        <v>2.0505803439004093E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.3010803104098485E-3</v>
       </c>
       <c r="O23" s="22">
-        <f t="shared" si="3"/>
-        <v>21.430000000000007</v>
+        <f t="shared" si="4"/>
+        <v>-5.5400000000000205</v>
       </c>
       <c r="P23" s="48">
-        <f>M23/$M$55</f>
-        <v>4.4230758065011117E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2339483208470426E-2</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="S23" s="49"/>
     </row>
-    <row r="24" spans="1:19" s="100" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103">
+    <row r="24" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84">
         <v>110081</v>
       </c>
-      <c r="E24" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="104">
+      <c r="E24" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="85">
         <v>-10</v>
       </c>
-      <c r="G24" s="105">
+      <c r="G24" s="86">
         <v>156.43</v>
       </c>
-      <c r="H24" s="106">
+      <c r="H24" s="87">
+        <f t="shared" si="1"/>
+        <v>-1564.3000000000002</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="88" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="87">
+        <v>563.20000000000005</v>
+      </c>
+      <c r="P24" s="48">
         <f t="shared" si="0"/>
-        <v>-1564.3000000000002</v>
-      </c>
-      <c r="I24" s="104" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="104"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="107" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" s="106">
-        <v>563.20000000000005</v>
-      </c>
-      <c r="P24" s="48">
-        <f>M24/$M$55</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="108"/>
-      <c r="S24" s="109"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="89"/>
+      <c r="S24" s="90"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -3343,7 +4470,7 @@
         <v>113017</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F25" s="27">
         <v>10</v>
@@ -3352,14 +4479,14 @@
         <v>101.91</v>
       </c>
       <c r="H25" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1019.0999999999999</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J25" s="23">
-        <v>101.99</v>
+        <v>101.16</v>
       </c>
       <c r="K25" s="23">
         <v>101.93</v>
@@ -3368,57 +4495,77 @@
         <v>10</v>
       </c>
       <c r="M25" s="22">
-        <f t="shared" si="1"/>
-        <v>1019.9</v>
+        <f t="shared" si="2"/>
+        <v>1011.5999999999999</v>
       </c>
       <c r="N25" s="48">
-        <f t="shared" si="2"/>
-        <v>5.886392622386742E-4</v>
+        <f t="shared" si="3"/>
+        <v>-7.5542038653979215E-3</v>
       </c>
       <c r="O25" s="22">
-        <f t="shared" si="3"/>
-        <v>0.59999999999988063</v>
+        <f t="shared" si="4"/>
+        <v>-7.7000000000001023</v>
       </c>
       <c r="P25" s="48">
-        <f>M25/$M$55</f>
-        <v>4.22981248481058E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.1201909722363643E-2</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S25" s="49"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="40"/>
+      <c r="B26" s="59">
+        <v>11</v>
+      </c>
+      <c r="C26" s="58">
+        <v>44453</v>
+      </c>
+      <c r="D26" s="61">
+        <v>113576</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="27">
+        <v>10</v>
+      </c>
+      <c r="G26" s="40">
+        <v>96.6</v>
+      </c>
       <c r="H26" s="26">
+        <f t="shared" si="1"/>
+        <v>966</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="23">
+        <v>94.21</v>
+      </c>
+      <c r="K26" s="23">
+        <v>96.62</v>
+      </c>
+      <c r="L26" s="23">
+        <v>10</v>
+      </c>
+      <c r="M26" s="22">
+        <f t="shared" si="2"/>
+        <v>942.09999999999991</v>
+      </c>
+      <c r="N26" s="48">
+        <f t="shared" si="3"/>
+        <v>-2.4943075967708658E-2</v>
+      </c>
+      <c r="O26" s="22">
+        <f t="shared" si="4"/>
+        <v>-24.100000000000108</v>
+      </c>
+      <c r="P26" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="48" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" s="22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="48">
-        <f>M26/$M$55</f>
-        <v>0</v>
+        <v>3.837121307773704E-2</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="S26" s="49"/>
@@ -3432,7 +4579,7 @@
       <c r="F27" s="27"/>
       <c r="G27" s="40"/>
       <c r="H27" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="27"/>
@@ -3440,19 +4587,19 @@
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
       <c r="M27" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N27" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="48">
-        <f>M27/$M$55</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q27" s="15"/>
@@ -3467,7 +4614,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="40"/>
       <c r="H28" s="26">
-        <f t="shared" ref="H28:H43" si="8">F28*G28</f>
+        <f t="shared" ref="H28:H43" si="9">F28*G28</f>
         <v>0</v>
       </c>
       <c r="I28" s="27"/>
@@ -3475,19 +4622,19 @@
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
       <c r="M28" s="22">
-        <f t="shared" ref="M28:M43" si="9">J28*L28</f>
+        <f t="shared" ref="M28:M43" si="10">J28*L28</f>
         <v>0</v>
       </c>
       <c r="N28" s="48" t="e">
-        <f t="shared" ref="N28:N43" si="10">(J28-K28)/K28</f>
+        <f t="shared" ref="N28:N43" si="11">(J28-K28)/K28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="22">
-        <f t="shared" ref="O28:O43" si="11">(J28-K28)*L28</f>
+        <f t="shared" ref="O28:O43" si="12">(J28-K28)*L28</f>
         <v>0</v>
       </c>
       <c r="P28" s="48">
-        <f t="shared" ref="P28:P43" si="12">M28/$M$55</f>
+        <f t="shared" ref="P28:P43" si="13">M28/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q28" s="15"/>
@@ -3502,7 +4649,7 @@
       <c r="F29" s="27"/>
       <c r="G29" s="40"/>
       <c r="H29" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I29" s="27"/>
@@ -3510,19 +4657,19 @@
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
       <c r="M29" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N29" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P29" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q29" s="15"/>
@@ -3537,7 +4684,7 @@
       <c r="F30" s="27"/>
       <c r="G30" s="40"/>
       <c r="H30" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I30" s="27"/>
@@ -3545,19 +4692,19 @@
       <c r="K30" s="23"/>
       <c r="L30" s="23"/>
       <c r="M30" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N30" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O30" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P30" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q30" s="15"/>
@@ -3572,7 +4719,7 @@
       <c r="F31" s="27"/>
       <c r="G31" s="40"/>
       <c r="H31" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I31" s="27"/>
@@ -3580,19 +4727,19 @@
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N31" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O31" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P31" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q31" s="15"/>
@@ -3607,7 +4754,7 @@
       <c r="F32" s="27"/>
       <c r="G32" s="40"/>
       <c r="H32" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I32" s="27"/>
@@ -3615,19 +4762,19 @@
       <c r="K32" s="23"/>
       <c r="L32" s="23"/>
       <c r="M32" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N32" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O32" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P32" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q32" s="15"/>
@@ -3642,7 +4789,7 @@
       <c r="F33" s="27"/>
       <c r="G33" s="40"/>
       <c r="H33" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I33" s="27"/>
@@ -3650,19 +4797,19 @@
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N33" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P33" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q33" s="15"/>
@@ -3677,7 +4824,7 @@
       <c r="F34" s="27"/>
       <c r="G34" s="40"/>
       <c r="H34" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I34" s="27"/>
@@ -3685,19 +4832,19 @@
       <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N34" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O34" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P34" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q34" s="15"/>
@@ -3712,7 +4859,7 @@
       <c r="F35" s="27"/>
       <c r="G35" s="40"/>
       <c r="H35" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I35" s="27"/>
@@ -3720,19 +4867,19 @@
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N35" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P35" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q35" s="15"/>
@@ -3747,7 +4894,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="40"/>
       <c r="H36" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I36" s="27"/>
@@ -3755,19 +4902,19 @@
       <c r="K36" s="23"/>
       <c r="L36" s="23"/>
       <c r="M36" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N36" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P36" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q36" s="15"/>
@@ -3782,7 +4929,7 @@
       <c r="F37" s="27"/>
       <c r="G37" s="40"/>
       <c r="H37" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I37" s="27"/>
@@ -3790,19 +4937,19 @@
       <c r="K37" s="23"/>
       <c r="L37" s="23"/>
       <c r="M37" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N37" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O37" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P37" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q37" s="15"/>
@@ -3817,7 +4964,7 @@
       <c r="F38" s="27"/>
       <c r="G38" s="40"/>
       <c r="H38" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I38" s="27"/>
@@ -3825,19 +4972,19 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N38" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P38" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q38" s="15"/>
@@ -3852,7 +4999,7 @@
       <c r="F39" s="27"/>
       <c r="G39" s="40"/>
       <c r="H39" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I39" s="27"/>
@@ -3860,19 +5007,19 @@
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N39" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P39" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q39" s="15"/>
@@ -3887,7 +5034,7 @@
       <c r="F40" s="27"/>
       <c r="G40" s="40"/>
       <c r="H40" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I40" s="27"/>
@@ -3895,19 +5042,19 @@
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N40" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P40" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q40" s="15"/>
@@ -3922,7 +5069,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="40"/>
       <c r="H41" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I41" s="27"/>
@@ -3930,19 +5077,19 @@
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N41" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P41" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q41" s="15"/>
@@ -3957,7 +5104,7 @@
       <c r="F42" s="27"/>
       <c r="G42" s="40"/>
       <c r="H42" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I42" s="27"/>
@@ -3965,19 +5112,19 @@
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N42" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P42" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q42" s="15"/>
@@ -3992,7 +5139,7 @@
       <c r="F43" s="27"/>
       <c r="G43" s="40"/>
       <c r="H43" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I43" s="27"/>
@@ -4000,19 +5147,19 @@
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N43" s="48" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P43" s="48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q43" s="15"/>
@@ -4027,7 +5174,7 @@
       <c r="F44" s="27"/>
       <c r="G44" s="40"/>
       <c r="H44" s="26">
-        <f t="shared" ref="H43:H44" si="13">F44*G44</f>
+        <f t="shared" ref="H44" si="14">F44*G44</f>
         <v>0</v>
       </c>
       <c r="I44" s="27"/>
@@ -4035,19 +5182,19 @@
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="22">
-        <f t="shared" ref="M42:M44" si="14">J44*L44</f>
+        <f t="shared" ref="M44" si="15">J44*L44</f>
         <v>0</v>
       </c>
       <c r="N44" s="48" t="e">
-        <f t="shared" ref="N42:N44" si="15">(J44-K44)/K44</f>
+        <f t="shared" ref="N44" si="16">(J44-K44)/K44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="22">
-        <f t="shared" ref="O42:O44" si="16">(J44-K44)*L44</f>
+        <f t="shared" ref="O44" si="17">(J44-K44)*L44</f>
         <v>0</v>
       </c>
       <c r="P44" s="48">
-        <f t="shared" ref="P42:P44" si="17">M44/$M$55</f>
+        <f t="shared" ref="P44" si="18">M44/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q44" s="15"/>
@@ -4061,7 +5208,7 @@
         <v>128124</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="40"/>
@@ -4072,11 +5219,11 @@
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
       <c r="N45" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P45" s="48">
@@ -4094,7 +5241,7 @@
         <v>128062</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="40"/>
@@ -4105,7 +5252,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
       <c r="N46" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="22"/>
@@ -4121,7 +5268,7 @@
         <v>127016</v>
       </c>
       <c r="E47" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="40"/>
@@ -4132,7 +5279,7 @@
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
       <c r="N47" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="22"/>
@@ -4148,7 +5295,7 @@
         <v>127019</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" s="27"/>
       <c r="G48" s="40"/>
@@ -4159,11 +5306,11 @@
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
       <c r="N48" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P48" s="48">
@@ -4177,12 +5324,8 @@
       <c r="A49" s="7"/>
       <c r="B49" s="59"/>
       <c r="C49"/>
-      <c r="D49" s="54">
-        <v>113017</v>
-      </c>
-      <c r="E49" s="54" t="s">
-        <v>51</v>
-      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="27"/>
       <c r="G49" s="40"/>
       <c r="H49" s="27"/>
@@ -4192,11 +5335,11 @@
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
       <c r="N49" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P49" s="48">
@@ -4221,7 +5364,7 @@
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
       <c r="N50" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="23"/>
@@ -4239,9 +5382,7 @@
         <v>46</v>
       </c>
       <c r="D51" s="63"/>
-      <c r="E51" s="63" t="s">
-        <v>48</v>
-      </c>
+      <c r="E51" s="63"/>
       <c r="F51" s="27"/>
       <c r="G51" s="40"/>
       <c r="H51" s="27"/>
@@ -4251,7 +5392,7 @@
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
       <c r="N51" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="23"/>
@@ -4263,12 +5404,8 @@
       <c r="A52" s="7"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
-      <c r="D52" s="68">
-        <v>123056</v>
-      </c>
-      <c r="E52" s="69" t="s">
-        <v>82</v>
-      </c>
+      <c r="D52" s="68"/>
+      <c r="E52" s="69"/>
       <c r="F52" s="27"/>
       <c r="G52" s="40"/>
       <c r="H52" s="27"/>
@@ -4278,7 +5415,7 @@
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
       <c r="N52" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="23"/>
@@ -4291,7 +5428,7 @@
       <c r="C53" s="14"/>
       <c r="D53" s="63"/>
       <c r="E53" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="40"/>
@@ -4302,7 +5439,7 @@
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
       <c r="N53" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="23"/>
@@ -4326,7 +5463,7 @@
       <c r="L54" s="50"/>
       <c r="M54" s="23"/>
       <c r="N54" s="48" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="23"/>
@@ -4349,22 +5486,22 @@
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="24"/>
-      <c r="K55" s="81">
+      <c r="K55" s="93">
         <f>SUMPRODUCT((K3:K53)*(L3:L53))</f>
-        <v>22589.329999999998</v>
-      </c>
-      <c r="L55" s="82"/>
+        <v>23555.53</v>
+      </c>
+      <c r="L55" s="94"/>
       <c r="M55" s="45">
         <f>SUM(M3:M54)</f>
-        <v>24112.180000000008</v>
+        <v>24552.26</v>
       </c>
       <c r="N55" s="48">
         <f>(O55)/K55</f>
-        <v>9.2346696427029931E-2</v>
+        <v>6.6223515242492953E-2</v>
       </c>
       <c r="O55" s="38">
         <f>SUM(O3:O54)</f>
-        <v>2086.0499999999997</v>
+        <v>1559.93</v>
       </c>
       <c r="P55" s="24"/>
       <c r="Q55" s="18"/>
@@ -4399,42 +5536,42 @@
     <hyperlink ref="D5" r:id="rId1" display="https://www.jisilu.cn/data/convert_bond_detail/113036" xr:uid="{FB80FD49-7865-4DA8-9D57-52E3EC9CE563}"/>
     <hyperlink ref="D10" r:id="rId2" display="https://www.jisilu.cn/data/convert_bond_detail/128132" xr:uid="{A78469C6-D41C-4045-8469-B9418A67BA22}"/>
     <hyperlink ref="D17" r:id="rId3" display="https://www.jisilu.cn/data/convert_bond_detail/113589" xr:uid="{4CFF5942-971C-4101-9473-68E6A2239D17}"/>
-    <hyperlink ref="D49" r:id="rId4" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{365E87B1-DCCE-4AEE-AB38-21BA2D9A8C1B}"/>
-    <hyperlink ref="E18" r:id="rId5" display="https://www.jisilu.cn/data/stock/002775" xr:uid="{FD6EB2FD-D40F-49B0-BEEE-FB4E0A659026}"/>
-    <hyperlink ref="D47" r:id="rId6" display="https://www.jisilu.cn/data/stock/000726" xr:uid="{F5B88C83-6625-4AD9-807E-C4D5E8165BC0}"/>
-    <hyperlink ref="D45" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/128124" xr:uid="{25F79F64-6817-4749-9C6E-2941A84362A5}"/>
-    <hyperlink ref="D48" r:id="rId8" display="https://www.jisilu.cn/data/convert_bond_detail/127019" xr:uid="{5C060248-BA69-4763-8EA3-148B57448DA2}"/>
-    <hyperlink ref="D46" r:id="rId9" display="https://www.jisilu.cn/data/convert_bond_detail/128062" xr:uid="{484FBE75-3E1C-405B-B4AA-55FDA610D8E9}"/>
-    <hyperlink ref="D52" r:id="rId10" display="https://www.jisilu.cn/data/convert_bond_detail/123056" xr:uid="{5021DCC6-FB86-4C2F-ABC4-62795EA4B653}"/>
-    <hyperlink ref="D25" r:id="rId11" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{8EC7B010-5AE4-44D8-A3B8-FD3DBD25390D}"/>
+    <hyperlink ref="E18" r:id="rId4" display="https://www.jisilu.cn/data/stock/002775" xr:uid="{FD6EB2FD-D40F-49B0-BEEE-FB4E0A659026}"/>
+    <hyperlink ref="D47" r:id="rId5" display="https://www.jisilu.cn/data/stock/000726" xr:uid="{F5B88C83-6625-4AD9-807E-C4D5E8165BC0}"/>
+    <hyperlink ref="D45" r:id="rId6" display="https://www.jisilu.cn/data/convert_bond_detail/128124" xr:uid="{25F79F64-6817-4749-9C6E-2941A84362A5}"/>
+    <hyperlink ref="D48" r:id="rId7" display="https://www.jisilu.cn/data/convert_bond_detail/127019" xr:uid="{5C060248-BA69-4763-8EA3-148B57448DA2}"/>
+    <hyperlink ref="D46" r:id="rId8" display="https://www.jisilu.cn/data/convert_bond_detail/128062" xr:uid="{484FBE75-3E1C-405B-B4AA-55FDA610D8E9}"/>
+    <hyperlink ref="D25" r:id="rId9" display="https://www.jisilu.cn/data/convert_bond_detail/113017" xr:uid="{8EC7B010-5AE4-44D8-A3B8-FD3DBD25390D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4448,11 +5585,11 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56">
         <v>44409</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="38">
         <v>379.53</v>
       </c>
       <c r="C3" s="57">
@@ -4470,11 +5607,11 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56">
         <v>44435</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="38">
         <v>1475.4</v>
       </c>
       <c r="C5" s="57">
@@ -4485,16 +5622,28 @@
       <c r="A6" s="56">
         <v>44448</v>
       </c>
-      <c r="B6" s="110">
+      <c r="B6" s="91">
         <v>2086.1</v>
       </c>
       <c r="C6" s="57">
         <v>9.2299999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>44457</v>
+      </c>
+      <c r="B7" s="112">
+        <v>1592.6</v>
+      </c>
+      <c r="C7" s="113">
+        <v>6.7599999999999993E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4736,7 +5885,7 @@
     </row>
     <row r="7" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -4762,7 +5911,7 @@
     </row>
     <row r="8" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -4788,7 +5937,7 @@
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B9" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -4814,7 +5963,7 @@
     </row>
     <row r="10" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B10" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -4840,7 +5989,7 @@
     </row>
     <row r="11" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -4866,7 +6015,7 @@
     </row>
     <row r="12" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B12" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -4892,7 +6041,7 @@
     </row>
     <row r="13" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B13" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -4918,7 +6067,7 @@
     </row>
     <row r="14" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B14" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -4934,7 +6083,7 @@
     </row>
     <row r="15" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B15" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -5292,14 +6441,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="97" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98" t="s">
+      <c r="B1" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="109"/>
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="99"/>
+      <c r="E1" s="111"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/CB-202109.xlsx
+++ b/CB-202109.xlsx
@@ -8,23 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB524DCC-A7DA-436C-BCED-955950DB28CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F3B274-06DE-48C2-9BEE-74CF153DD8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
-    <sheet name="CB低价-每周一支定投" sheetId="2" r:id="rId1"/>
-    <sheet name="收益weekly" sheetId="6" r:id="rId2"/>
+    <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
+    <sheet name="CB低价-每周一支定投" sheetId="2" r:id="rId2"/>
     <sheet name="方案" sheetId="3" r:id="rId3"/>
     <sheet name="选 择" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="s" sheetId="1" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">收益weekly!$A$2:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">收益weekly!$B$2:$B$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">收益weekly!$C$2:$C$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="87">
   <si>
     <t>收入</t>
   </si>
@@ -346,6 +341,10 @@
   </si>
   <si>
     <t>起步转债</t>
+  </si>
+  <si>
+    <t>全筑转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1092,6 +1091,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,8 +1164,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1207,7 +1206,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,10 +1399,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$7</c:f>
+              <c:f>收益weekly!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -1422,15 +1421,18 @@
                 <c:pt idx="5">
                   <c:v>44457</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>44463</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$B$2:$B$7</c:f>
+              <c:f>收益weekly!$B$2:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>475.78</c:v>
                 </c:pt>
@@ -1448,6 +1450,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1592.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1866.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1534,10 +1539,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$7</c:f>
+              <c:f>收益weekly!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -1556,15 +1561,18 @@
                 <c:pt idx="5">
                   <c:v>44457</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>44463</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$C$2:$C$7</c:f>
+              <c:f>收益weekly!$C$2:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
@@ -1582,6 +1590,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6.7599999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6100000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2342,7 +2353,7 @@
         <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0BFA67-F3AF-4DD6-931A-E65AFE5D2227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,6 +2375,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66282</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47123</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D105BF-5F89-4D88-A6BA-9A036D9B914D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="9525"/>
+          <a:ext cx="3142857" cy="4019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -3264,12 +3324,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56">
+        <v>44400</v>
+      </c>
+      <c r="B2" s="38">
+        <v>475.78</v>
+      </c>
+      <c r="C2" s="57">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56">
+        <v>44409</v>
+      </c>
+      <c r="B3" s="38">
+        <v>379.53</v>
+      </c>
+      <c r="C3" s="57">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56">
+        <v>44416</v>
+      </c>
+      <c r="B4" s="38">
+        <v>738.74</v>
+      </c>
+      <c r="C4" s="57">
+        <v>4.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56">
+        <v>44435</v>
+      </c>
+      <c r="B5" s="38">
+        <v>1475.4</v>
+      </c>
+      <c r="C5" s="57">
+        <v>6.8500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="56">
+        <v>44448</v>
+      </c>
+      <c r="B6" s="91">
+        <v>2086.1</v>
+      </c>
+      <c r="C6" s="57">
+        <v>9.2299999999999993E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
+        <v>44457</v>
+      </c>
+      <c r="B7" s="93">
+        <v>1592.6</v>
+      </c>
+      <c r="C7" s="94">
+        <v>6.7599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <v>44463</v>
+      </c>
+      <c r="B8" s="38">
+        <v>1866.5</v>
+      </c>
+      <c r="C8" s="57">
+        <v>7.6100000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
+      <selection pane="bottomLeft" activeCell="P65" sqref="P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3295,47 +3465,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97"/>
-      <c r="B1" s="103" t="s">
+      <c r="A1" s="99"/>
+      <c r="B1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="101" t="s">
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="99" t="s">
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="95" t="s">
+      <c r="S1" s="97" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="26" t="s">
         <v>10</v>
       </c>
@@ -3369,11 +3539,11 @@
       <c r="P2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="100"/>
+      <c r="Q2" s="102"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="96"/>
+      <c r="S2" s="98"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
@@ -3401,7 +3571,7 @@
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="23">
-        <v>103.938</v>
+        <v>105</v>
       </c>
       <c r="K3" s="23">
         <v>101.267</v>
@@ -3411,19 +3581,19 @@
       </c>
       <c r="M3" s="22">
         <f>J3*L3</f>
-        <v>1039.3800000000001</v>
+        <v>1050</v>
       </c>
       <c r="N3" s="48">
         <f>(J3-K3)/K3</f>
-        <v>2.6375818381111384E-2</v>
+        <v>3.6862946468247351E-2</v>
       </c>
       <c r="O3" s="22">
         <f>(J3-K3)*L3</f>
-        <v>26.710000000000065</v>
+        <v>37.330000000000041</v>
       </c>
       <c r="P3" s="48">
         <f t="shared" ref="P3:P27" si="0">M3/$M$55</f>
-        <v>4.2333373791251808E-2</v>
+        <v>4.0631514344278953E-2</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="S3" s="44"/>
@@ -3451,7 +3621,7 @@
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="23">
-        <v>100.5</v>
+        <v>101.14</v>
       </c>
       <c r="K4" s="23">
         <v>98.05</v>
@@ -3461,19 +3631,19 @@
       </c>
       <c r="M4" s="22">
         <f t="shared" ref="M4:M27" si="2">J4*L4</f>
-        <v>1005</v>
+        <v>1011.4</v>
       </c>
       <c r="N4" s="48">
         <f t="shared" ref="N4:N54" si="3">(J4-K4)/K4</f>
-        <v>2.4987251402345773E-2</v>
+        <v>3.1514533401325887E-2</v>
       </c>
       <c r="O4" s="22">
         <f t="shared" ref="O4:O49" si="4">(J4-K4)*L4</f>
-        <v>24.500000000000028</v>
+        <v>30.900000000000034</v>
       </c>
       <c r="P4" s="48">
         <f t="shared" si="0"/>
-        <v>4.0933095364744432E-2</v>
+        <v>3.9137822483622596E-2</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="S4" s="49"/>
@@ -3504,7 +3674,7 @@
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="23">
-        <v>105.95</v>
+        <v>108.27</v>
       </c>
       <c r="K5" s="23">
         <v>100.94</v>
@@ -3514,19 +3684,19 @@
       </c>
       <c r="M5" s="22">
         <f t="shared" si="2"/>
-        <v>1059.5</v>
+        <v>1082.7</v>
       </c>
       <c r="N5" s="48">
         <f t="shared" si="3"/>
-        <v>4.9633445611254261E-2</v>
+        <v>7.2617396473152351E-2</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" si="4"/>
-        <v>50.100000000000051</v>
+        <v>73.299999999999983</v>
       </c>
       <c r="P5" s="48">
         <f t="shared" si="0"/>
-        <v>4.3152850287509176E-2</v>
+        <v>4.1896895791000782E-2</v>
       </c>
       <c r="Q5" s="15"/>
       <c r="S5" s="49"/>
@@ -3554,7 +3724,7 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="23">
-        <v>100.035</v>
+        <v>103.07299999999999</v>
       </c>
       <c r="K6" s="23">
         <v>95.771000000000001</v>
@@ -3564,19 +3734,19 @@
       </c>
       <c r="M6" s="22">
         <f t="shared" si="2"/>
-        <v>1000.3499999999999</v>
+        <v>1030.73</v>
       </c>
       <c r="N6" s="48">
         <f t="shared" si="3"/>
-        <v>4.4522872268223115E-2</v>
+        <v>7.624437460191491E-2</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" si="4"/>
-        <v>42.639999999999958</v>
+        <v>73.019999999999925</v>
       </c>
       <c r="P6" s="48">
         <f t="shared" si="0"/>
-        <v>4.0743703430967247E-2</v>
+        <v>3.9885829314360612E-2</v>
       </c>
       <c r="Q6" s="15"/>
       <c r="S6" s="49"/>
@@ -3602,7 +3772,7 @@
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="23">
-        <v>98.6</v>
+        <v>99.286000000000001</v>
       </c>
       <c r="K7" s="23">
         <v>96.34</v>
@@ -3612,19 +3782,19 @@
       </c>
       <c r="M7" s="22">
         <f t="shared" ref="M7:M15" si="6">J7*L7</f>
-        <v>1972</v>
+        <v>1985.72</v>
       </c>
       <c r="N7" s="48">
         <f t="shared" ref="N7:N15" si="7">(J7-K7)/K7</f>
-        <v>2.3458584181025439E-2</v>
+        <v>3.0579198671372203E-2</v>
       </c>
       <c r="O7" s="22">
         <f t="shared" ref="O7:O15" si="8">(J7-K7)*L7</f>
-        <v>45.199999999999818</v>
+        <v>58.919999999999959</v>
       </c>
       <c r="P7" s="48">
         <f t="shared" si="0"/>
-        <v>8.0318471700772151E-2</v>
+        <v>7.6840772060687235E-2</v>
       </c>
       <c r="Q7" s="15"/>
       <c r="S7" s="49"/>
@@ -3653,7 +3823,7 @@
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="23">
-        <v>113.55</v>
+        <v>119</v>
       </c>
       <c r="K8" s="23">
         <v>100</v>
@@ -3663,19 +3833,19 @@
       </c>
       <c r="M8" s="22">
         <f t="shared" si="6"/>
-        <v>1135.5</v>
+        <v>1190</v>
       </c>
       <c r="N8" s="48">
         <f t="shared" si="7"/>
-        <v>0.13549999999999998</v>
+        <v>0.19</v>
       </c>
       <c r="O8" s="22">
         <f t="shared" si="8"/>
-        <v>135.49999999999997</v>
+        <v>190</v>
       </c>
       <c r="P8" s="48">
         <f t="shared" si="0"/>
-        <v>4.6248288344942587E-2</v>
+        <v>4.6049049590182807E-2</v>
       </c>
       <c r="Q8" s="15"/>
       <c r="S8" s="49"/>
@@ -3701,7 +3871,7 @@
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="23">
-        <v>107.541</v>
+        <v>108</v>
       </c>
       <c r="K9" s="23">
         <v>102.126</v>
@@ -3711,19 +3881,19 @@
       </c>
       <c r="M9" s="22">
         <f t="shared" si="6"/>
-        <v>1075.4099999999999</v>
+        <v>1080</v>
       </c>
       <c r="N9" s="48">
         <f t="shared" si="7"/>
-        <v>5.3022736619469983E-2</v>
+        <v>5.7517184654250583E-2</v>
       </c>
       <c r="O9" s="22">
         <f t="shared" si="8"/>
-        <v>54.14999999999992</v>
+        <v>58.739999999999952</v>
       </c>
       <c r="P9" s="48">
         <f t="shared" si="0"/>
-        <v>4.3800855807163981E-2</v>
+        <v>4.1792414754115492E-2</v>
       </c>
       <c r="Q9" s="15"/>
       <c r="S9" s="49"/>
@@ -3749,7 +3919,7 @@
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="23">
-        <v>100.11</v>
+        <v>101.6</v>
       </c>
       <c r="K10" s="23">
         <v>99.6</v>
@@ -3759,19 +3929,19 @@
       </c>
       <c r="M10" s="22">
         <f>J10*L10</f>
-        <v>1001.1</v>
+        <v>1016</v>
       </c>
       <c r="N10" s="48">
         <f>(J10-K10)/K10</f>
-        <v>5.1204819277108947E-3</v>
+        <v>2.0080321285140562E-2</v>
       </c>
       <c r="O10" s="22">
         <f>(J10-K10)*L10</f>
-        <v>5.1000000000000512</v>
+        <v>20</v>
       </c>
       <c r="P10" s="48">
         <f t="shared" si="0"/>
-        <v>4.0774250517060351E-2</v>
+        <v>3.9315827213130872E-2</v>
       </c>
       <c r="Q10" s="15"/>
       <c r="S10" s="49"/>
@@ -3792,7 +3962,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="27"/>
       <c r="J11" s="23">
-        <v>105.13</v>
+        <v>107.16</v>
       </c>
       <c r="K11" s="23">
         <v>97.01</v>
@@ -3802,19 +3972,19 @@
       </c>
       <c r="M11" s="22">
         <f>J11*L11</f>
-        <v>1051.3</v>
+        <v>1071.5999999999999</v>
       </c>
       <c r="N11" s="48">
         <f>(J11-K11)/K11</f>
-        <v>8.3702711060715293E-2</v>
+        <v>0.10462838882589415</v>
       </c>
       <c r="O11" s="22">
         <f>(J11-K11)*L11</f>
-        <v>81.199999999999903</v>
+        <v>101.49999999999991</v>
       </c>
       <c r="P11" s="48">
         <f t="shared" si="0"/>
-        <v>4.2818868812891361E-2</v>
+        <v>4.1467362639361259E-2</v>
       </c>
       <c r="Q11" s="15"/>
       <c r="S11" s="49"/>
@@ -3840,7 +4010,7 @@
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="23">
-        <v>109.67</v>
+        <v>112.9</v>
       </c>
       <c r="K12" s="23">
         <v>98.131</v>
@@ -3850,19 +4020,19 @@
       </c>
       <c r="M12" s="22">
         <f t="shared" si="6"/>
-        <v>1096.7</v>
+        <v>1129</v>
       </c>
       <c r="N12" s="48">
         <f t="shared" si="7"/>
-        <v>0.11758771438179577</v>
+        <v>0.15050289918578233</v>
       </c>
       <c r="O12" s="22">
         <f t="shared" si="8"/>
-        <v>115.39000000000001</v>
+        <v>147.69000000000005</v>
       </c>
       <c r="P12" s="48">
         <f t="shared" si="0"/>
-        <v>4.4667985757726583E-2</v>
+        <v>4.368855209018184E-2</v>
       </c>
       <c r="Q12" s="15"/>
       <c r="S12" s="49"/>
@@ -3883,7 +4053,7 @@
       <c r="H13" s="26"/>
       <c r="I13" s="27"/>
       <c r="J13" s="23">
-        <v>108.51</v>
+        <v>109.25</v>
       </c>
       <c r="K13" s="23">
         <v>98.19</v>
@@ -3893,19 +4063,19 @@
       </c>
       <c r="M13" s="22">
         <f t="shared" si="6"/>
-        <v>1085.1000000000001</v>
+        <v>1092.5</v>
       </c>
       <c r="N13" s="48">
         <f t="shared" si="7"/>
-        <v>0.10510235258172938</v>
+        <v>0.11263876158468278</v>
       </c>
       <c r="O13" s="22">
         <f t="shared" si="8"/>
-        <v>103.20000000000007</v>
+        <v>110.60000000000002</v>
       </c>
       <c r="P13" s="48">
         <f t="shared" si="0"/>
-        <v>4.419552415948675E-2</v>
+        <v>4.2276123258214053E-2</v>
       </c>
       <c r="Q13" s="15"/>
       <c r="S13" s="49"/>
@@ -3931,7 +4101,7 @@
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="23">
-        <v>105.14</v>
+        <v>107</v>
       </c>
       <c r="K14" s="23">
         <v>98.71</v>
@@ -3941,19 +4111,19 @@
       </c>
       <c r="M14" s="22">
         <f t="shared" si="6"/>
-        <v>1051.4000000000001</v>
+        <v>1070</v>
       </c>
       <c r="N14" s="48">
         <f t="shared" si="7"/>
-        <v>6.5140309998987012E-2</v>
+        <v>8.3983385675210284E-2</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="8"/>
-        <v>64.300000000000068</v>
+        <v>82.900000000000063</v>
       </c>
       <c r="P14" s="48">
         <f t="shared" si="0"/>
-        <v>4.2822941757703778E-2</v>
+        <v>4.1405447950836644E-2</v>
       </c>
       <c r="Q14" s="15"/>
       <c r="S14" s="49"/>
@@ -3979,7 +4149,7 @@
       </c>
       <c r="I15" s="27"/>
       <c r="J15" s="23">
-        <v>105.24</v>
+        <v>105.22</v>
       </c>
       <c r="K15" s="23">
         <v>109.215</v>
@@ -3989,19 +4159,19 @@
       </c>
       <c r="M15" s="22">
         <f t="shared" si="6"/>
-        <v>2104.7999999999997</v>
+        <v>2104.4</v>
       </c>
       <c r="N15" s="48">
         <f t="shared" si="7"/>
-        <v>-3.6396099436890615E-2</v>
+        <v>-3.6579224465503865E-2</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="8"/>
-        <v>-79.500000000000171</v>
+        <v>-79.900000000000091</v>
       </c>
       <c r="P15" s="48">
         <f t="shared" si="0"/>
-        <v>8.5727342411655791E-2</v>
+        <v>8.143329408200059E-2</v>
       </c>
       <c r="Q15" s="15"/>
       <c r="S15" s="49"/>
@@ -4031,7 +4201,7 @@
       </c>
       <c r="I16" s="27"/>
       <c r="J16" s="23">
-        <v>105.89</v>
+        <v>105.54</v>
       </c>
       <c r="K16" s="23">
         <v>78.131</v>
@@ -4041,19 +4211,19 @@
       </c>
       <c r="M16" s="22">
         <f t="shared" si="2"/>
-        <v>1058.9000000000001</v>
+        <v>1055.4000000000001</v>
       </c>
       <c r="N16" s="48">
         <f t="shared" si="3"/>
-        <v>0.3552879138882134</v>
+        <v>0.3508082579257914</v>
       </c>
       <c r="O16" s="22">
         <f t="shared" si="4"/>
-        <v>277.59000000000003</v>
+        <v>274.09000000000003</v>
       </c>
       <c r="P16" s="48">
         <f t="shared" si="0"/>
-        <v>4.3128412618634704E-2</v>
+        <v>4.0840476418049533E-2</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="S16" s="49"/>
@@ -4083,7 +4253,7 @@
       </c>
       <c r="I17" s="27"/>
       <c r="J17" s="23">
-        <v>95.88</v>
+        <v>96.32</v>
       </c>
       <c r="K17" s="23">
         <v>94.27</v>
@@ -4093,19 +4263,19 @@
       </c>
       <c r="M17" s="22">
         <f t="shared" si="2"/>
-        <v>958.8</v>
+        <v>963.19999999999993</v>
       </c>
       <c r="N17" s="48">
         <f t="shared" si="3"/>
-        <v>1.7078604009759198E-2</v>
+        <v>2.1746048583854857E-2</v>
       </c>
       <c r="O17" s="22">
         <f t="shared" si="4"/>
-        <v>16.099999999999994</v>
+        <v>20.499999999999972</v>
       </c>
       <c r="P17" s="48">
         <f t="shared" si="0"/>
-        <v>3.9051394861409905E-2</v>
+        <v>3.7272642491818553E-2</v>
       </c>
       <c r="Q17" s="15"/>
       <c r="S17" s="49"/>
@@ -4135,7 +4305,7 @@
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="23">
-        <v>98.198999999999998</v>
+        <v>98.855999999999995</v>
       </c>
       <c r="K18" s="23">
         <v>97.88</v>
@@ -4145,19 +4315,19 @@
       </c>
       <c r="M18" s="22">
         <f t="shared" si="2"/>
-        <v>981.99</v>
+        <v>988.56</v>
       </c>
       <c r="N18" s="48">
         <f t="shared" si="3"/>
-        <v>3.2590927666530712E-3</v>
+        <v>9.9713935431140089E-3</v>
       </c>
       <c r="O18" s="22">
         <f t="shared" si="4"/>
-        <v>3.1900000000000261</v>
+        <v>9.7599999999999909</v>
       </c>
       <c r="P18" s="48">
         <f t="shared" si="0"/>
-        <v>3.9995910763408339E-2</v>
+        <v>3.8253990304933712E-2</v>
       </c>
       <c r="Q18" s="15"/>
       <c r="S18" s="49"/>
@@ -4187,7 +4357,7 @@
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="23">
-        <v>89.59</v>
+        <v>91.43</v>
       </c>
       <c r="K19" s="23">
         <v>86.13</v>
@@ -4197,19 +4367,19 @@
       </c>
       <c r="M19" s="22">
         <f t="shared" si="2"/>
-        <v>895.90000000000009</v>
+        <v>914.30000000000007</v>
       </c>
       <c r="N19" s="48">
         <f t="shared" si="3"/>
-        <v>4.0171833275281649E-2</v>
+        <v>6.1534889121096156E-2</v>
       </c>
       <c r="O19" s="22">
         <f>(J19-K19)*L19</f>
-        <v>34.60000000000008</v>
+        <v>53.000000000000114</v>
       </c>
       <c r="P19" s="48">
         <f t="shared" si="0"/>
-        <v>3.6489512574402527E-2</v>
+        <v>3.5380374823784998E-2</v>
       </c>
       <c r="Q19" s="15"/>
       <c r="S19" s="49"/>
@@ -4234,7 +4404,7 @@
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
       <c r="J20" s="23">
-        <v>94.09</v>
+        <v>94.58</v>
       </c>
       <c r="K20" s="23">
         <v>92.44</v>
@@ -4244,19 +4414,19 @@
       </c>
       <c r="M20" s="22">
         <f t="shared" si="2"/>
-        <v>940.90000000000009</v>
+        <v>945.8</v>
       </c>
       <c r="N20" s="48">
         <f t="shared" si="3"/>
-        <v>1.7849415837299931E-2</v>
+        <v>2.3150151449588929E-2</v>
       </c>
       <c r="O20" s="22">
         <f>(J20-K20)*L20</f>
-        <v>16.500000000000057</v>
+        <v>21.400000000000006</v>
       </c>
       <c r="P20" s="48">
         <f t="shared" si="0"/>
-        <v>3.8322337739988097E-2</v>
+        <v>3.659932025411336E-2</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="S20" s="49"/>
@@ -4333,7 +4503,7 @@
       </c>
       <c r="I22" s="27"/>
       <c r="J22" s="23">
-        <v>104.5</v>
+        <v>105</v>
       </c>
       <c r="K22" s="23">
         <v>102.74</v>
@@ -4343,19 +4513,19 @@
       </c>
       <c r="M22" s="22">
         <f t="shared" si="2"/>
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="N22" s="48">
         <f t="shared" si="3"/>
-        <v>1.7130620985010756E-2</v>
+        <v>2.1997274673934253E-2</v>
       </c>
       <c r="O22" s="22">
         <f t="shared" si="4"/>
-        <v>17.600000000000051</v>
+        <v>22.600000000000051</v>
       </c>
       <c r="P22" s="48">
         <f t="shared" si="0"/>
-        <v>4.2562273289709379E-2</v>
+        <v>4.0631514344278953E-2</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="S22" s="49"/>
@@ -4388,7 +4558,7 @@
         <v>82</v>
       </c>
       <c r="J23" s="23">
-        <v>103.953</v>
+        <v>104.95</v>
       </c>
       <c r="K23" s="23">
         <v>104.50700000000001</v>
@@ -4398,19 +4568,19 @@
       </c>
       <c r="M23" s="22">
         <f t="shared" si="2"/>
-        <v>1039.53</v>
+        <v>1049.5</v>
       </c>
       <c r="N23" s="48">
         <f t="shared" si="3"/>
-        <v>-5.3010803104098485E-3</v>
+        <v>4.2389505009233618E-3</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="4"/>
-        <v>-5.5400000000000205</v>
+        <v>4.4299999999999784</v>
       </c>
       <c r="P23" s="48">
         <f t="shared" si="0"/>
-        <v>4.2339483208470426E-2</v>
+        <v>4.0612166004115005E-2</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="S23" s="49"/>
@@ -4431,8 +4601,7 @@
         <v>156.43</v>
       </c>
       <c r="H24" s="87">
-        <f t="shared" si="1"/>
-        <v>-1564.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="I24" s="85" t="s">
         <v>83</v>
@@ -4486,7 +4655,7 @@
         <v>82</v>
       </c>
       <c r="J25" s="23">
-        <v>101.16</v>
+        <v>101.56</v>
       </c>
       <c r="K25" s="23">
         <v>101.93</v>
@@ -4496,19 +4665,19 @@
       </c>
       <c r="M25" s="22">
         <f t="shared" si="2"/>
-        <v>1011.5999999999999</v>
+        <v>1015.6</v>
       </c>
       <c r="N25" s="48">
         <f t="shared" si="3"/>
-        <v>-7.5542038653979215E-3</v>
+        <v>-3.6299421171392576E-3</v>
       </c>
       <c r="O25" s="22">
         <f t="shared" si="4"/>
-        <v>-7.7000000000001023</v>
+        <v>-3.7000000000000455</v>
       </c>
       <c r="P25" s="48">
         <f t="shared" si="0"/>
-        <v>4.1201909722363643E-2</v>
+        <v>3.9300348540999716E-2</v>
       </c>
       <c r="Q25" s="15" t="s">
         <v>84</v>
@@ -4543,7 +4712,7 @@
         <v>82</v>
       </c>
       <c r="J26" s="23">
-        <v>94.21</v>
+        <v>95.43</v>
       </c>
       <c r="K26" s="23">
         <v>96.62</v>
@@ -4553,54 +4722,72 @@
       </c>
       <c r="M26" s="22">
         <f t="shared" si="2"/>
-        <v>942.09999999999991</v>
+        <v>954.30000000000007</v>
       </c>
       <c r="N26" s="48">
         <f t="shared" si="3"/>
-        <v>-2.4943075967708658E-2</v>
+        <v>-1.2316290623059384E-2</v>
       </c>
       <c r="O26" s="22">
         <f t="shared" si="4"/>
-        <v>-24.100000000000108</v>
+        <v>-11.899999999999977</v>
       </c>
       <c r="P26" s="48">
         <f t="shared" si="0"/>
-        <v>3.837121307773704E-2</v>
+        <v>3.6928242036900386E-2</v>
       </c>
       <c r="Q26" s="15"/>
       <c r="S26" s="49"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="40"/>
+      <c r="B27" s="67">
+        <v>12</v>
+      </c>
+      <c r="C27" s="58">
+        <v>44461</v>
+      </c>
+      <c r="D27" s="61">
+        <v>113578</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="27">
+        <v>10</v>
+      </c>
+      <c r="G27" s="40">
+        <v>98.3</v>
+      </c>
       <c r="H27" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>983</v>
       </c>
       <c r="I27" s="27"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
+      <c r="J27" s="23">
+        <v>99.13</v>
+      </c>
+      <c r="K27" s="23">
+        <v>98.32</v>
+      </c>
+      <c r="L27" s="23">
+        <v>10</v>
+      </c>
       <c r="M27" s="22">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="48" t="e">
+        <v>991.3</v>
+      </c>
+      <c r="N27" s="48">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.2384052074857845E-3</v>
       </c>
       <c r="O27" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.1000000000000227</v>
       </c>
       <c r="P27" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8360019209032113E-2</v>
       </c>
       <c r="Q27" s="15"/>
       <c r="S27" s="49"/>
@@ -5486,22 +5673,22 @@
       </c>
       <c r="I55" s="28"/>
       <c r="J55" s="24"/>
-      <c r="K55" s="93">
+      <c r="K55" s="95">
         <f>SUMPRODUCT((K3:K53)*(L3:L53))</f>
-        <v>23555.53</v>
-      </c>
-      <c r="L55" s="94"/>
+        <v>24538.73</v>
+      </c>
+      <c r="L55" s="96"/>
       <c r="M55" s="45">
         <f>SUM(M3:M54)</f>
-        <v>24552.26</v>
+        <v>25842.01</v>
       </c>
       <c r="N55" s="48">
         <f>(O55)/K55</f>
-        <v>6.6223515242492953E-2</v>
+        <v>7.6062616117460027E-2</v>
       </c>
       <c r="O55" s="38">
         <f>SUM(O3:O54)</f>
-        <v>1559.93</v>
+        <v>1866.48</v>
       </c>
       <c r="P55" s="24"/>
       <c r="Q55" s="18"/>
@@ -5548,111 +5735,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.125" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56">
-        <v>44400</v>
-      </c>
-      <c r="B2" s="38">
-        <v>475.78</v>
-      </c>
-      <c r="C2" s="57">
-        <v>2.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56">
-        <v>44409</v>
-      </c>
-      <c r="B3" s="38">
-        <v>379.53</v>
-      </c>
-      <c r="C3" s="57">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56">
-        <v>44416</v>
-      </c>
-      <c r="B4" s="38">
-        <v>738.74</v>
-      </c>
-      <c r="C4" s="57">
-        <v>4.1700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56">
-        <v>44435</v>
-      </c>
-      <c r="B5" s="38">
-        <v>1475.4</v>
-      </c>
-      <c r="C5" s="57">
-        <v>6.8500000000000005E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
-        <v>44448</v>
-      </c>
-      <c r="B6" s="91">
-        <v>2086.1</v>
-      </c>
-      <c r="C6" s="57">
-        <v>9.2299999999999993E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
-        <v>44457</v>
-      </c>
-      <c r="B7" s="112">
-        <v>1592.6</v>
-      </c>
-      <c r="C7" s="113">
-        <v>6.7599999999999993E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B1329E-1337-4138-9A17-3602309B5170}">
   <dimension ref="C1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5740,6 +5828,7 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6095,17 +6184,17 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId4" name="Control 12">
+        <control shapeId="3073" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -6115,13 +6204,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3084" r:id="rId4" name="Control 12"/>
+        <control shapeId="3073" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId6" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId6" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6130,47 +6219,22 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3083" r:id="rId6" name="Control 11"/>
+        <control shapeId="3074" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId7" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3082" r:id="rId7" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId8" name="Control 9">
+        <control shapeId="3075" r:id="rId8" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6190,12 +6254,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId8" name="Control 9"/>
+        <control shapeId="3075" r:id="rId8" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId10" name="Control 8">
+        <control shapeId="3076" r:id="rId10" name="Control 4">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6215,12 +6279,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId10" name="Control 8"/>
+        <control shapeId="3076" r:id="rId10" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId11" name="Control 7">
+        <control shapeId="3077" r:id="rId11" name="Control 5">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6240,7 +6304,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId11" name="Control 7"/>
+        <control shapeId="3077" r:id="rId11" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6270,7 +6334,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId13" name="Control 5">
+        <control shapeId="3079" r:id="rId13" name="Control 7">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6290,12 +6354,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId13" name="Control 5"/>
+        <control shapeId="3079" r:id="rId13" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId14" name="Control 4">
+        <control shapeId="3080" r:id="rId14" name="Control 8">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6315,12 +6379,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId14" name="Control 4"/>
+        <control shapeId="3080" r:id="rId14" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId15" name="Control 3">
+        <control shapeId="3081" r:id="rId15" name="Control 9">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6340,13 +6404,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId15" name="Control 3"/>
+        <control shapeId="3081" r:id="rId15" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId16" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId17">
+        <control shapeId="3082" r:id="rId16" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6355,32 +6419,7 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId16" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId18" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -6390,7 +6429,57 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId18" name="Control 1"/>
+        <control shapeId="3082" r:id="rId16" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3083" r:id="rId17" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3083" r:id="rId17" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3084" r:id="rId18" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3084" r:id="rId18" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6441,14 +6530,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110" t="s">
+      <c r="B1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="111"/>
+      <c r="D1" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="111"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
